--- a/codigo_final_organizado/Simulaciones/calibracion_y_train/resultados_TEST_TAMANOS_ARMA.xlsx
+++ b/codigo_final_organizado/Simulaciones/calibracion_y_train/resultados_TEST_TAMANOS_ARMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,82 +446,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tipo_Proceso</t>
+          <t>Distribución</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Varianza</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Varianza</t>
+          <t>N_Train</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N_Train</t>
+          <t>N_Calib</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>N_Calib</t>
+          <t>N_Total</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>N_Total</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Valor_Observado</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Sieve Bootstrap</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>LSPM</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LSPMW</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>AREPD</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>MCPS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>AV-MCPS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DeepAR</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
         </is>
       </c>
     </row>
@@ -536,55 +531,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" t="n">
         <v>120</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I2" t="n">
-        <v>-0.4975893881367536</v>
+        <v>0.6984664852688213</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2073870152852145</v>
+        <v>0.6002968831020423</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2966652938974254</v>
+        <v>0.6442254238393641</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4332740277941035</v>
+        <v>0.6538221424149083</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3664550609854843</v>
+        <v>0.6132877750152956</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24983188640494</v>
+        <v>0.6365793582962751</v>
       </c>
       <c r="O2" t="n">
-        <v>0.239211118391471</v>
+        <v>1.222666668547461</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2317212157781516</v>
+        <v>0.5915606986164648</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2780039368975404</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.3897466672812752</v>
+        <v>1.200964208271394</v>
       </c>
     </row>
     <row r="3">
@@ -598,55 +590,52 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
         <v>120</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I3" t="n">
-        <v>-0.001758247840997706</v>
+        <v>0.6735089033024594</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4632667527179244</v>
+        <v>0.5711117868744452</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7063839163238402</v>
+        <v>0.5809203478233423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5704546355016701</v>
+        <v>0.7313123787292583</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3118801592173445</v>
+        <v>0.5989015821910522</v>
       </c>
       <c r="N3" t="n">
-        <v>1.297048119811866</v>
+        <v>0.6102120260517971</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2339245346130281</v>
+        <v>1.403922251788675</v>
       </c>
       <c r="P3" t="n">
-        <v>0.238815033032761</v>
+        <v>0.5726913513654839</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8743306421403535</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.2762004449046409</v>
+        <v>1.181834962932555</v>
       </c>
     </row>
     <row r="4">
@@ -660,55 +649,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="n">
         <v>120</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>-0.4565659033976779</v>
+        <v>0.7045939131487455</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2135034939677852</v>
+        <v>0.590400875019775</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2878191375144573</v>
+        <v>0.6302232022766504</v>
       </c>
       <c r="L4" t="n">
-        <v>0.415210848818111</v>
+        <v>0.6231742844464776</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3344498224949962</v>
+        <v>0.6355855993060142</v>
       </c>
       <c r="N4" t="n">
-        <v>1.256626412072152</v>
+        <v>0.7259972454607824</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2598699504865202</v>
+        <v>1.641139127059913</v>
       </c>
       <c r="P4" t="n">
-        <v>0.266131178491209</v>
+        <v>0.5846593401833673</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2578587204647341</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1896913659339232</v>
+        <v>1.216146523092128</v>
       </c>
     </row>
     <row r="5">
@@ -722,55 +708,52 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
         <v>120</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>-1.636515076825158</v>
+        <v>0.7184770281715042</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5566925681887689</v>
+        <v>0.5601037826203462</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4428211692512602</v>
+        <v>0.5618079332422808</v>
       </c>
       <c r="L5" t="n">
-        <v>0.48542984266052</v>
+        <v>0.5770592274005285</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7775719272716198</v>
+        <v>0.6441656450935193</v>
       </c>
       <c r="N5" t="n">
-        <v>1.157275470444207</v>
+        <v>0.7162621227921401</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8995081251183048</v>
+        <v>1.548615113852451</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9962232807409273</v>
+        <v>0.5603640027587629</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3056322279922915</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.184190728180626</v>
+        <v>1.230857876234767</v>
       </c>
     </row>
     <row r="6">
@@ -784,55 +767,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
         <v>120</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I6" t="n">
-        <v>-2.750801143462262</v>
+        <v>0.7175852090785722</v>
       </c>
       <c r="J6" t="n">
-        <v>1.637163593309796</v>
+        <v>0.5952331567408234</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6011374346830348</v>
+        <v>0.8503398954693525</v>
       </c>
       <c r="L6" t="n">
-        <v>1.10327101352586</v>
+        <v>1.016553012736402</v>
       </c>
       <c r="M6" t="n">
-        <v>1.328762463643417</v>
+        <v>0.6549720240936981</v>
       </c>
       <c r="N6" t="n">
-        <v>1.088353831208655</v>
+        <v>0.8803238945927403</v>
       </c>
       <c r="O6" t="n">
-        <v>1.769092005237946</v>
+        <v>1.514409168810871</v>
       </c>
       <c r="P6" t="n">
-        <v>1.876427932136558</v>
+        <v>0.5828597853205615</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6381388035272785</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2380186212705274</v>
+        <v>1.156171529460409</v>
       </c>
     </row>
     <row r="7">
@@ -846,55 +826,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
         <v>120</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I7" t="n">
-        <v>-2.303133111393916</v>
+        <v>0.6657036326203809</v>
       </c>
       <c r="J7" t="n">
-        <v>1.186065120654484</v>
+        <v>0.5893877056621247</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2850131398924851</v>
+        <v>0.6591098636845736</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8362181268436671</v>
+        <v>0.8506909407208945</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5792789761007452</v>
+        <v>0.6171082906844021</v>
       </c>
       <c r="N7" t="n">
-        <v>1.101396859356437</v>
+        <v>0.7762159850083539</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2507256679078898</v>
+        <v>1.182743247764443</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2367274837497427</v>
+        <v>0.5916205079432288</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2486859288793938</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.5698279926048455</v>
+        <v>1.175720886578319</v>
       </c>
     </row>
     <row r="8">
@@ -908,55 +885,52 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
         <v>120</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I8" t="n">
-        <v>-0.4937285438440895</v>
+        <v>0.6283048753201962</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2029643309448337</v>
+        <v>0.5762698070588554</v>
       </c>
       <c r="K8" t="n">
-        <v>1.116441220873369</v>
+        <v>0.6124191499372259</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4035492974092253</v>
+        <v>0.7272928396662945</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6851079610488668</v>
+        <v>0.5920956196271315</v>
       </c>
       <c r="N8" t="n">
-        <v>1.248093930255647</v>
+        <v>0.6482672804171339</v>
       </c>
       <c r="O8" t="n">
-        <v>1.862206147770275</v>
+        <v>1.358353972935328</v>
       </c>
       <c r="P8" t="n">
-        <v>1.862293261594303</v>
+        <v>0.6227101664777415</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.180985650377131</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.005811752376922</v>
+        <v>1.186759295121467</v>
       </c>
     </row>
     <row r="9">
@@ -970,55 +944,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" t="n">
         <v>120</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I9" t="n">
-        <v>-0.2843640758862424</v>
+        <v>1.412569610061789</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2959711347344596</v>
+        <v>0.6373192693956168</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4421161186890383</v>
+        <v>1.647561235061498</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4855822434306096</v>
+        <v>1.140110980408478</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6087945168297644</v>
+        <v>1.593561633096177</v>
       </c>
       <c r="N9" t="n">
-        <v>1.265064420443825</v>
+        <v>0.5874535687538437</v>
       </c>
       <c r="O9" t="n">
-        <v>1.287228618574687</v>
+        <v>0.984182432640446</v>
       </c>
       <c r="P9" t="n">
-        <v>1.284150139270173</v>
+        <v>0.6579368056270377</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2944623011555471</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.2574259889591221</v>
+        <v>1.516212848213384</v>
       </c>
     </row>
     <row r="10">
@@ -1032,55 +1003,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="n">
         <v>120</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>-0.3745659944075007</v>
+        <v>2.924662129354762</v>
       </c>
       <c r="J10" t="n">
-        <v>0.245203905834797</v>
+        <v>0.587031814860283</v>
       </c>
       <c r="K10" t="n">
-        <v>0.300660015247686</v>
+        <v>0.9897460525072739</v>
       </c>
       <c r="L10" t="n">
-        <v>0.416337020487095</v>
+        <v>2.493480969219295</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4522510409611091</v>
+        <v>2.970509665791557</v>
       </c>
       <c r="N10" t="n">
-        <v>1.255830712696547</v>
+        <v>0.9230979788142561</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2632635462843453</v>
+        <v>2.28326212509679</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2791956698768782</v>
+        <v>0.6176389157744144</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3025908988942354</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.2765395755108678</v>
+        <v>2.218628267796966</v>
       </c>
     </row>
     <row r="11">
@@ -1094,55 +1062,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H11" t="n">
         <v>120</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I11" t="n">
-        <v>-0.05128325536420775</v>
+        <v>1.758522715330564</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4276536806903979</v>
+        <v>0.7430746622336418</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3217702985497586</v>
+        <v>1.048929300363202</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5647860248895954</v>
+        <v>1.446895385946263</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4637663147198959</v>
+        <v>1.880146721562304</v>
       </c>
       <c r="N11" t="n">
-        <v>1.285911635774782</v>
+        <v>0.6278438288731061</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2105147296706754</v>
+        <v>1.665447413646822</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2282595596885523</v>
+        <v>0.5834615681701</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3318340197964604</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.8158343238745913</v>
+        <v>1.613595202510726</v>
       </c>
     </row>
     <row r="12">
@@ -1156,55 +1121,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
-      </c>
-      <c r="H12" t="n">
         <v>120</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>1.259846811879038</v>
+        <v>1.567760119189308</v>
       </c>
       <c r="J12" t="n">
-        <v>1.597732647914927</v>
+        <v>0.6371758845773126</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8227523355614602</v>
+        <v>0.6069113450330128</v>
       </c>
       <c r="L12" t="n">
-        <v>1.548762764906547</v>
+        <v>1.133684969477458</v>
       </c>
       <c r="M12" t="n">
-        <v>1.090859652323909</v>
+        <v>1.530355433374858</v>
       </c>
       <c r="N12" t="n">
-        <v>1.505993885626813</v>
+        <v>1.066730976689172</v>
       </c>
       <c r="O12" t="n">
-        <v>1.541777407701447</v>
+        <v>1.622932245844862</v>
       </c>
       <c r="P12" t="n">
-        <v>1.493652115469063</v>
+        <v>0.5752652610890645</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8203338960495378</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.8209837209063259</v>
+        <v>1.486805439657491</v>
       </c>
     </row>
     <row r="13">
@@ -1218,122 +1180,116 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>120</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7297596671402384</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5974913891653711</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8115275890033861</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5580437040648767</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6703021083230024</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6540553727887851</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.588092312962753</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5881768648989338</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.260147745815682</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AR(2)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>100</v>
       </c>
-      <c r="G13" t="n">
+      <c r="F14" t="n">
         <v>20</v>
       </c>
-      <c r="H13" t="n">
+      <c r="G14" t="n">
         <v>120</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.35324463205499</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.686840529240161</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5755122730914135</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.510272081959788</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7996781145121545</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.525765861374668</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.164988393061875</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.098701297606431</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.6530674428721146</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.2978363805499363</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AR(1)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>20</v>
-      </c>
-      <c r="H14" t="n">
-        <v>120</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6971026625899812</v>
+      </c>
       <c r="J14" t="n">
-        <v>0.726703731123629</v>
+        <v>0.6081721369677748</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5165910294646023</v>
+        <v>0.7656297883753312</v>
       </c>
       <c r="L14" t="n">
-        <v>0.731095660685566</v>
+        <v>0.7518347887540834</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6499046675091088</v>
+        <v>0.7067437413253572</v>
       </c>
       <c r="N14" t="n">
-        <v>1.269766085455878</v>
+        <v>0.5759871642464311</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8318591870682054</v>
+        <v>0.6812409816722658</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8410248472862291</v>
+        <v>0.5618874877144481</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5154937057538848</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.5268422968628003</v>
+        <v>0.9294500049202131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1342,60 +1298,57 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H15" t="n">
         <v>120</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I15" t="n">
-        <v>-1.897848342297924</v>
+        <v>0.5810807144583409</v>
       </c>
       <c r="J15" t="n">
-        <v>1.449558714824754</v>
+        <v>0.569908992240848</v>
       </c>
       <c r="K15" t="n">
-        <v>1.351264595493043</v>
+        <v>0.6207121484328876</v>
       </c>
       <c r="L15" t="n">
-        <v>1.121646937055673</v>
+        <v>0.5893710508848248</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4819797425331365</v>
+        <v>0.5831460262361657</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9049583043681495</v>
+        <v>0.6256919100573854</v>
       </c>
       <c r="O15" t="n">
-        <v>1.356380897997938</v>
+        <v>0.636437495430231</v>
       </c>
       <c r="P15" t="n">
-        <v>1.461968516938247</v>
+        <v>0.5797398937330338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.057354674280165</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.7565648403921271</v>
+        <v>0.8311433584354111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1404,60 +1357,57 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
-      </c>
-      <c r="H16" t="n">
         <v>120</v>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I16" t="n">
-        <v>0.4161474127397505</v>
+        <v>0.7784673708203338</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2635673214513783</v>
+        <v>0.8007877401774791</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9056195192075659</v>
+        <v>0.743759355532186</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3539716130511283</v>
+        <v>0.8321032408281998</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2967992487535019</v>
+        <v>0.7872651231007486</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9096478840135434</v>
+        <v>0.8716542978568987</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6853855217326781</v>
+        <v>0.6368370413175866</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6432273708045603</v>
+        <v>0.5760919431076428</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3583235239193718</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.7146361489767804</v>
+        <v>0.9637394965486679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1466,60 +1416,57 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
-      </c>
-      <c r="H17" t="n">
         <v>120</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I17" t="n">
-        <v>-1.170001574702311</v>
+        <v>0.8978403648702474</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8127161677704718</v>
+        <v>0.5641670926193961</v>
       </c>
       <c r="K17" t="n">
-        <v>1.385237855995809</v>
+        <v>1.431623990887965</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6162632505756059</v>
+        <v>0.8971756106054657</v>
       </c>
       <c r="M17" t="n">
-        <v>1.251591638650191</v>
+        <v>1.08396830313495</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8305890667503648</v>
+        <v>0.8873728981372392</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6929478847233396</v>
+        <v>1.156392571719129</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6257270593975491</v>
+        <v>0.6514324261529666</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.698223460864392</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.027594597711872</v>
+        <v>0.9062285327734917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1528,60 +1475,57 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
-      </c>
-      <c r="H18" t="n">
         <v>120</v>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I18" t="n">
-        <v>1.598356812848527</v>
+        <v>0.6634976400782839</v>
       </c>
       <c r="J18" t="n">
-        <v>1.003630681425457</v>
+        <v>0.5685340821238539</v>
       </c>
       <c r="K18" t="n">
-        <v>1.485560226414959</v>
+        <v>1.179590959799028</v>
       </c>
       <c r="L18" t="n">
-        <v>1.167467087237479</v>
+        <v>0.6782516229597262</v>
       </c>
       <c r="M18" t="n">
-        <v>2.117505211570387</v>
+        <v>0.6531803392026649</v>
       </c>
       <c r="N18" t="n">
-        <v>1.042652255327619</v>
+        <v>0.586138391457469</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5221059107591247</v>
+        <v>0.6955914982485062</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5130322885281491</v>
+        <v>0.5687329724046164</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.700268413970125</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.25176465852186</v>
+        <v>0.8826746970470394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1590,60 +1534,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" t="n">
         <v>120</v>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I19" t="n">
-        <v>2.351650716085291</v>
+        <v>0.780195687427963</v>
       </c>
       <c r="J19" t="n">
-        <v>1.690028822717442</v>
+        <v>0.5945403022336669</v>
       </c>
       <c r="K19" t="n">
-        <v>1.243017444656907</v>
+        <v>0.6412315524051913</v>
       </c>
       <c r="L19" t="n">
-        <v>1.832086407133838</v>
+        <v>0.7586815329575828</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7117790807125571</v>
+        <v>0.7233314515423013</v>
       </c>
       <c r="N19" t="n">
-        <v>1.447286935934393</v>
+        <v>0.6201828115755961</v>
       </c>
       <c r="O19" t="n">
-        <v>2.633388322405635</v>
+        <v>0.9577056837838909</v>
       </c>
       <c r="P19" t="n">
-        <v>2.647902623426126</v>
+        <v>0.6701862775436116</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.821891912743118</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.287125457745657</v>
+        <v>0.9225683538828885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1652,60 +1593,57 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
         <v>120</v>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I20" t="n">
-        <v>-0.5129019215279994</v>
+        <v>0.5724316119063833</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3769737039619214</v>
+        <v>0.620828196344416</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3306963236472756</v>
+        <v>0.6098479671659848</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3352423777642999</v>
+        <v>0.5841135653043135</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6049838898090235</v>
+        <v>0.57777026866169</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8627155707604304</v>
+        <v>0.6131123063605159</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8660029482583804</v>
+        <v>0.5659835401696018</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8158267980463761</v>
+        <v>0.5640564943517727</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3180343842435676</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.4372416981550973</v>
+        <v>0.8240814114835892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1714,60 +1652,57 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" t="n">
         <v>120</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I21" t="n">
-        <v>-0.2989721007065891</v>
+        <v>0.668461979302385</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2859358566957501</v>
+        <v>0.762980108658048</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3903725886333775</v>
+        <v>0.7636666919515285</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3064265009514618</v>
+        <v>0.8781458595296064</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8864962009301678</v>
+        <v>0.8248240681985756</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8751933750501169</v>
+        <v>0.6804963337365926</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3474068971025789</v>
+        <v>0.6741478397652367</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4337267743984186</v>
+        <v>0.6015673172348958</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.318099100572083</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.030630675313424</v>
+        <v>0.9813374267911421</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1776,60 +1711,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
-      </c>
-      <c r="H22" t="n">
         <v>120</v>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I22" t="n">
-        <v>0.4998935359796738</v>
+        <v>0.7964637293696962</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2849416850952666</v>
+        <v>0.5865003661570365</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6586230360758728</v>
+        <v>1.142105649919877</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4046938869647937</v>
+        <v>0.7166039034318675</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2604322845857296</v>
+        <v>0.8482267773765562</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9174958471765178</v>
+        <v>0.6403681224293433</v>
       </c>
       <c r="O22" t="n">
-        <v>1.114803183747248</v>
+        <v>0.6769219350196781</v>
       </c>
       <c r="P22" t="n">
-        <v>1.039166218154525</v>
+        <v>0.5836214217149105</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.300210130897959</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.4679702258196904</v>
+        <v>0.8357942404418491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1838,60 +1770,57 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
-      </c>
-      <c r="H23" t="n">
         <v>120</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>0.1416130573006496</v>
+        <v>0.5739618774016023</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2111450406915547</v>
+        <v>0.5699144494079588</v>
       </c>
       <c r="K23" t="n">
-        <v>0.328877968443418</v>
+        <v>0.6684478646129843</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2962281519919588</v>
+        <v>0.5665648100854255</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2755835187242267</v>
+        <v>0.5862087165119111</v>
       </c>
       <c r="N23" t="n">
-        <v>0.899462879292285</v>
+        <v>0.8177134035644049</v>
       </c>
       <c r="O23" t="n">
-        <v>0.276743411135715</v>
+        <v>0.9115482126178049</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3436771664540278</v>
+        <v>0.5713286348770754</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3899051640120418</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.233260871152168</v>
+        <v>0.8020547979794433</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1900,60 +1829,57 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
-      </c>
-      <c r="H24" t="n">
         <v>120</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I24" t="n">
-        <v>0.4521901795220071</v>
+        <v>0.7131492164417599</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2788854448697909</v>
+        <v>0.6042807472263623</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3392834299490842</v>
+        <v>0.8796948851289403</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3639439037250973</v>
+        <v>0.8282862538693025</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4086670215863404</v>
+        <v>0.7912433548631546</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9163905261434526</v>
+        <v>0.596582005990297</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3095949612317026</v>
+        <v>0.6577413790534938</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3228414215479425</v>
+        <v>0.5862640644749716</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.399522075690025</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.2575321936235749</v>
+        <v>0.9478745007499229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1962,184 +1888,175 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
-      </c>
-      <c r="H25" t="n">
         <v>120</v>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I25" t="n">
-        <v>-0.1406716151369813</v>
+        <v>0.6036207398737004</v>
       </c>
       <c r="J25" t="n">
-        <v>0.239646644161163</v>
+        <v>0.5826114793667291</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7039145022263102</v>
+        <v>0.5893332801107583</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2977158535431236</v>
+        <v>0.6509045911736249</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2909315708357174</v>
+        <v>0.6245243849465725</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8859471624267201</v>
+        <v>0.5993913359571819</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2618403260305403</v>
+        <v>0.6266155899235198</v>
       </c>
       <c r="P25" t="n">
-        <v>0.292593073003277</v>
+        <v>0.588624369261036</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6663623223392857</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.6572694385020432</v>
+        <v>0.8672493525220846</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>140</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9814827816538513</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5590914564321722</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.069132582747496</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.076891069043755</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8293201223408994</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.640372794885993</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6120933047743085</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.5480082511387704</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.481859449205423</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AR(1)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
         <v>100</v>
       </c>
-      <c r="G26" t="n">
-        <v>20</v>
-      </c>
-      <c r="H26" t="n">
-        <v>120</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-0.2813877948268713</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.2749067864654248</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.7296523827192112</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.3075480426099201</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.3022972634196658</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.8786277796761661</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.3016158731593538</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.3792312119232015</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.3456190167203876</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.3116814163306284</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
-      </c>
-      <c r="H27" t="n">
-        <v>120</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8583660339431874</v>
+      </c>
       <c r="J27" t="n">
-        <v>0.5976614058441979</v>
+        <v>0.6175635543366218</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8210099894552361</v>
+        <v>0.6132934774400578</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6169361677170316</v>
+        <v>1.207778551710848</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6574205560092202</v>
+        <v>0.7719137944611923</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9475806322433131</v>
+        <v>0.8103975204514934</v>
       </c>
       <c r="O27" t="n">
-        <v>0.780684678190353</v>
+        <v>0.7634154223976973</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7932433768852</v>
+        <v>0.5696055533202399</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7811511816877101</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.8694393518537437</v>
+        <v>1.49367633273066</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2148,60 +2065,57 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
-      </c>
-      <c r="H28" t="n">
         <v>140</v>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I28" t="n">
-        <v>0.3348556162398439</v>
+        <v>0.7144716648223706</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3517123760287618</v>
+        <v>0.5792735982741567</v>
       </c>
       <c r="K28" t="n">
-        <v>0.90759218017886</v>
+        <v>0.6352117452170365</v>
       </c>
       <c r="L28" t="n">
-        <v>0.39672877759327</v>
+        <v>1.835556817827488</v>
       </c>
       <c r="M28" t="n">
-        <v>1.10002501616852</v>
+        <v>0.6248651791290146</v>
       </c>
       <c r="N28" t="n">
-        <v>1.529470359776141</v>
+        <v>0.593143033788335</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3677478113557014</v>
+        <v>0.5925166632112638</v>
       </c>
       <c r="P28" t="n">
-        <v>0.324966482470247</v>
+        <v>0.6096403766345143</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.8350398950710398</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.17041677742067</v>
+        <v>1.557999676900397</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2210,60 +2124,57 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
-      </c>
-      <c r="H29" t="n">
         <v>140</v>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I29" t="n">
-        <v>0.4704336617400947</v>
+        <v>0.8286178325307539</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3081067547002342</v>
+        <v>0.6241715414809307</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6975147233241819</v>
+        <v>0.7597107463738826</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3798907447014059</v>
+        <v>1.203215363133358</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3495194613477254</v>
+        <v>0.7838234855997239</v>
       </c>
       <c r="N29" t="n">
-        <v>1.553505684113057</v>
+        <v>0.6740763616215332</v>
       </c>
       <c r="O29" t="n">
-        <v>1.326834155681617</v>
+        <v>0.6924192144874496</v>
       </c>
       <c r="P29" t="n">
-        <v>1.33606535013854</v>
+        <v>0.5886908952609027</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5312170751789514</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.3711187133067433</v>
+        <v>1.494750886297128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2272,60 +2183,57 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>40</v>
-      </c>
-      <c r="H30" t="n">
         <v>140</v>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I30" t="n">
-        <v>0.3706826236512595</v>
+        <v>0.7810175377219789</v>
       </c>
       <c r="J30" t="n">
-        <v>0.333016940126884</v>
+        <v>0.5658566779936112</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4790165794407462</v>
+        <v>0.6422071160795364</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4625064289163476</v>
+        <v>1.789085493468108</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2566757979225499</v>
+        <v>0.6125595586563305</v>
       </c>
       <c r="N30" t="n">
-        <v>1.552358657580061</v>
+        <v>0.5887947457546042</v>
       </c>
       <c r="O30" t="n">
-        <v>0.3058207635531106</v>
+        <v>0.579330343690862</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2801034977736224</v>
+        <v>0.5838399775781177</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.382250283110661</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.2791708356440722</v>
+        <v>1.550791653131335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2334,60 +2242,57 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
-      </c>
-      <c r="H31" t="n">
         <v>140</v>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>-0.5486270070495266</v>
+        <v>0.9185537560945646</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9205410657035613</v>
+        <v>0.5809883821566517</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2360292679841521</v>
+        <v>1.074680448054205</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6944614712664943</v>
+        <v>3.162960155646072</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6349061856700271</v>
+        <v>0.9823819725971327</v>
       </c>
       <c r="N31" t="n">
-        <v>1.478920289425252</v>
+        <v>0.5889528473860572</v>
       </c>
       <c r="O31" t="n">
-        <v>0.7375297774521663</v>
+        <v>0.5782830545857582</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8410305346342718</v>
+        <v>0.6269003203322424</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2653417033115637</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.2805377440485024</v>
+        <v>1.742411972894168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2396,60 +2301,57 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
-      </c>
-      <c r="H32" t="n">
         <v>140</v>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I32" t="n">
-        <v>-1.357870331732078</v>
+        <v>0.8518333840438942</v>
       </c>
       <c r="J32" t="n">
-        <v>1.565660524086334</v>
+        <v>0.6277815786311938</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5210666672904876</v>
+        <v>1.367062543563951</v>
       </c>
       <c r="L32" t="n">
-        <v>1.201411554970432</v>
+        <v>1.558571684781181</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6965795184103454</v>
+        <v>0.6407667773958237</v>
       </c>
       <c r="N32" t="n">
-        <v>1.458338131552094</v>
+        <v>0.5686394196645675</v>
       </c>
       <c r="O32" t="n">
-        <v>1.284238430987295</v>
+        <v>0.5710150118527492</v>
       </c>
       <c r="P32" t="n">
-        <v>1.378004750661506</v>
+        <v>0.5857249816403424</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3110196221122893</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.5803311529252677</v>
+        <v>1.521819058361098</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2458,60 +2360,57 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
-      </c>
-      <c r="H33" t="n">
         <v>140</v>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I33" t="n">
-        <v>-1.91666558308731</v>
+        <v>0.7581854583390003</v>
       </c>
       <c r="J33" t="n">
-        <v>2.065158276547049</v>
+        <v>0.5881570145011363</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6549050540187424</v>
+        <v>0.7845651157569252</v>
       </c>
       <c r="L33" t="n">
-        <v>1.669793974776685</v>
+        <v>2.590523902806517</v>
       </c>
       <c r="M33" t="n">
-        <v>0.5052770459320959</v>
+        <v>0.7357726150459911</v>
       </c>
       <c r="N33" t="n">
-        <v>1.475854242306699</v>
+        <v>0.5987444445250723</v>
       </c>
       <c r="O33" t="n">
-        <v>1.051479249504075</v>
+        <v>0.5795542716025128</v>
       </c>
       <c r="P33" t="n">
-        <v>1.085565315234864</v>
+        <v>0.5997356087179084</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4904439653061626</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.3461854403774212</v>
+        <v>1.657768861810372</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2520,60 +2419,57 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
-      </c>
-      <c r="H34" t="n">
         <v>140</v>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I34" t="n">
-        <v>-3.125924425023731</v>
+        <v>0.6419819695612692</v>
       </c>
       <c r="J34" t="n">
-        <v>3.226822650605079</v>
+        <v>0.5837898826680892</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7369717398259358</v>
+        <v>0.7570845784904456</v>
       </c>
       <c r="L34" t="n">
-        <v>2.828104472335096</v>
+        <v>1.639992806434994</v>
       </c>
       <c r="M34" t="n">
-        <v>1.005746805119665</v>
+        <v>0.6238635249316611</v>
       </c>
       <c r="N34" t="n">
-        <v>1.839905949972991</v>
+        <v>0.5741668495143017</v>
       </c>
       <c r="O34" t="n">
-        <v>1.355684850117033</v>
+        <v>0.5681332471702162</v>
       </c>
       <c r="P34" t="n">
-        <v>1.343325966353552</v>
+        <v>0.5717420303555187</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6270246518146515</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.772520242803641</v>
+        <v>1.52881715515475</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2582,60 +2478,57 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
-      </c>
-      <c r="H35" t="n">
         <v>140</v>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I35" t="n">
-        <v>-5.094526105610012</v>
+        <v>0.901405879773494</v>
       </c>
       <c r="J35" t="n">
-        <v>5.180952204702054</v>
+        <v>0.5598761747260919</v>
       </c>
       <c r="K35" t="n">
-        <v>1.445044866283476</v>
+        <v>0.8041658174925536</v>
       </c>
       <c r="L35" t="n">
-        <v>4.713295495572679</v>
+        <v>1.091582889701751</v>
       </c>
       <c r="M35" t="n">
-        <v>2.033630063075607</v>
+        <v>0.8176410174891358</v>
       </c>
       <c r="N35" t="n">
-        <v>3.365290990949375</v>
+        <v>1.036539440549745</v>
       </c>
       <c r="O35" t="n">
-        <v>2.79969420028822</v>
+        <v>0.6693946999239488</v>
       </c>
       <c r="P35" t="n">
-        <v>2.763966353363017</v>
+        <v>0.592816722712184</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.312830265957523</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.145519568366532</v>
+        <v>1.482893189794632</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2644,60 +2537,57 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
-      </c>
-      <c r="H36" t="n">
         <v>140</v>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I36" t="n">
-        <v>-3.56541353976869</v>
+        <v>0.8753807958312134</v>
       </c>
       <c r="J36" t="n">
-        <v>3.651410950908465</v>
+        <v>0.5611943861003931</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9378325272237815</v>
+        <v>0.5614729413678102</v>
       </c>
       <c r="L36" t="n">
-        <v>3.21180380676534</v>
+        <v>1.137370440347626</v>
       </c>
       <c r="M36" t="n">
-        <v>0.304988722282955</v>
+        <v>0.7897226057396521</v>
       </c>
       <c r="N36" t="n">
-        <v>1.765062409070728</v>
+        <v>0.6419317939697324</v>
       </c>
       <c r="O36" t="n">
-        <v>0.4847929902749263</v>
+        <v>0.6466884874427358</v>
       </c>
       <c r="P36" t="n">
-        <v>0.4065706373802755</v>
+        <v>0.5622678754303279</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.067269534101307</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.3070968344520839</v>
+        <v>1.483490037217616</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2706,246 +2596,234 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
-      </c>
-      <c r="H37" t="n">
         <v>140</v>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I37" t="n">
-        <v>-1.566981827907085</v>
+        <v>0.739536591020716</v>
       </c>
       <c r="J37" t="n">
-        <v>1.728817533717007</v>
+        <v>0.5797814623690388</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2617590327067899</v>
+        <v>1.386459963121791</v>
       </c>
       <c r="L37" t="n">
-        <v>1.316542519548325</v>
+        <v>2.78520929036148</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9278260928670222</v>
+        <v>0.8062366642842721</v>
       </c>
       <c r="N37" t="n">
-        <v>1.391071852893296</v>
+        <v>0.7239487884289483</v>
       </c>
       <c r="O37" t="n">
-        <v>2.34729443548302</v>
+        <v>0.7348671317038207</v>
       </c>
       <c r="P37" t="n">
-        <v>2.535726738270578</v>
+        <v>0.5984853029784356</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.304506176241566</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.9916608692250963</v>
+        <v>1.684571521588599</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
-      </c>
-      <c r="H38" t="n">
         <v>140</v>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I38" t="n">
-        <v>-2.0597574689521</v>
+        <v>0.8623936482727568</v>
       </c>
       <c r="J38" t="n">
-        <v>2.171610730952004</v>
+        <v>0.5797742243081337</v>
       </c>
       <c r="K38" t="n">
-        <v>0.651187260624589</v>
+        <v>1.164851616298048</v>
       </c>
       <c r="L38" t="n">
-        <v>1.757157940437622</v>
+        <v>1.189454976519895</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3354892899216734</v>
+        <v>0.8791988078049532</v>
       </c>
       <c r="N38" t="n">
-        <v>1.352088702480627</v>
+        <v>0.7139491850108975</v>
       </c>
       <c r="O38" t="n">
-        <v>0.80976364379049</v>
+        <v>0.655298904313152</v>
       </c>
       <c r="P38" t="n">
-        <v>0.9331493419400628</v>
+        <v>0.8392039459932298</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7321816979090893</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.5957126920954741</v>
+        <v>0.9498744992612628</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" t="n">
+        <v>140</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5659487397784245</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5623968316659448</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.7553148310297244</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.6927466524272178</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5784591030119529</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.562576388834567</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5717555501327817</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5737018302397842</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.8322285274618478</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AR(2)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
         <v>100</v>
       </c>
-      <c r="G39" t="n">
+      <c r="F40" t="n">
         <v>40</v>
       </c>
-      <c r="H39" t="n">
+      <c r="G40" t="n">
         <v>140</v>
       </c>
-      <c r="I39" t="n">
-        <v>-1.098893989154863</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.303963984006104</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3404261004252123</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.9514917701523962</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.3050778860856885</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.432636420090804</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.3031552894575781</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.3330933471561817</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.2600504154038128</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.2962736180293093</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>AR(1)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>100</v>
-      </c>
-      <c r="G40" t="n">
-        <v>40</v>
-      </c>
-      <c r="H40" t="n">
-        <v>140</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7399589081490895</v>
+      </c>
       <c r="J40" t="n">
-        <v>1.900647832673628</v>
+        <v>0.635422423649228</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6557788332772461</v>
+        <v>0.7971364380229962</v>
       </c>
       <c r="L40" t="n">
-        <v>1.631932413086341</v>
+        <v>0.5766756102777931</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7046451570669897</v>
+        <v>0.6838613745195652</v>
       </c>
       <c r="N40" t="n">
-        <v>1.682875307517594</v>
+        <v>0.6570228909955004</v>
       </c>
       <c r="O40" t="n">
-        <v>1.097836299828769</v>
+        <v>0.5810347078984595</v>
       </c>
       <c r="P40" t="n">
-        <v>1.13013069294806</v>
+        <v>0.7719133180009851</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5932646071265516</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.6780453740579012</v>
+        <v>0.8722558650715344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2954,60 +2832,57 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
-      </c>
-      <c r="H41" t="n">
         <v>140</v>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I41" t="n">
-        <v>-0.5462484543466226</v>
+        <v>0.7317650642550817</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5273617967519477</v>
+        <v>0.5726413997455378</v>
       </c>
       <c r="K41" t="n">
-        <v>1.032570226807128</v>
+        <v>0.9042532211180311</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4090820690485022</v>
+        <v>1.00665680118175</v>
       </c>
       <c r="M41" t="n">
-        <v>0.717799316017392</v>
+        <v>0.7605441835129684</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7620937294176002</v>
+        <v>0.5804704389529907</v>
       </c>
       <c r="O41" t="n">
-        <v>0.4535160047243959</v>
+        <v>0.6046265188955037</v>
       </c>
       <c r="P41" t="n">
-        <v>0.5462972677764537</v>
+        <v>0.7090052674376252</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.000792537496503</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.4465303731353851</v>
+        <v>0.8918872519961291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3016,60 +2891,57 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
-      </c>
-      <c r="H42" t="n">
         <v>140</v>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I42" t="n">
-        <v>-0.7848346845687512</v>
+        <v>0.6041655135402012</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7482983663341192</v>
+        <v>0.5673390344979321</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4428160126434617</v>
+        <v>0.7576442461374741</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5109520836641885</v>
+        <v>0.6213229143761269</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3485224790278683</v>
+        <v>0.5758975358112157</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7514769537575867</v>
+        <v>0.6137407124421658</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7484546131436242</v>
+        <v>0.6126812294012218</v>
       </c>
       <c r="P42" t="n">
-        <v>0.9456679425579462</v>
+        <v>0.5838772547739788</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3662837186560479</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.2774673771350991</v>
+        <v>0.8303465076599957</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3078,60 +2950,57 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
-        <v>40</v>
-      </c>
-      <c r="H43" t="n">
         <v>140</v>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I43" t="n">
-        <v>-0.5755625905884919</v>
+        <v>0.585375983306114</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5551491359205616</v>
+        <v>0.5519612724769219</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3504682017883614</v>
+        <v>0.5913473657638615</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4032783096673492</v>
+        <v>0.5537471883426047</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3893020443842259</v>
+        <v>0.6071485400849944</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7588797723833136</v>
+        <v>1.088212285051242</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2814732485618071</v>
+        <v>0.8319515644833537</v>
       </c>
       <c r="P43" t="n">
-        <v>0.284353429901864</v>
+        <v>0.6502522990459821</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2997174476372643</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.2621425098452803</v>
+        <v>0.8333647775007307</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3140,60 +3009,57 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>40</v>
-      </c>
-      <c r="H44" t="n">
         <v>140</v>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I44" t="n">
-        <v>1.832759279471366</v>
+        <v>0.5855916212702271</v>
       </c>
       <c r="J44" t="n">
-        <v>1.336080781425871</v>
+        <v>0.5874376017034533</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9735066194607602</v>
+        <v>0.6585732271927512</v>
       </c>
       <c r="L44" t="n">
-        <v>1.174463195364086</v>
+        <v>0.7409964670769355</v>
       </c>
       <c r="M44" t="n">
-        <v>1.179014562940819</v>
+        <v>0.6149680987860624</v>
       </c>
       <c r="N44" t="n">
-        <v>1.001870104876679</v>
+        <v>0.6027511057885935</v>
       </c>
       <c r="O44" t="n">
-        <v>1.370442875438451</v>
+        <v>0.6120779214956867</v>
       </c>
       <c r="P44" t="n">
-        <v>1.391530900440207</v>
+        <v>0.5975975420550059</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8819137778863526</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.048070528912278</v>
+        <v>0.8362144329796397</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3202,60 +3068,57 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
-      </c>
-      <c r="H45" t="n">
         <v>140</v>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I45" t="n">
-        <v>-0.04065582907035137</v>
+        <v>0.5608976875891707</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1478733290515366</v>
+        <v>0.5606102904686349</v>
       </c>
       <c r="K45" t="n">
-        <v>0.992594658303332</v>
+        <v>0.5847955496162968</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2783688867674976</v>
+        <v>0.6263845040956605</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9311683718797581</v>
+        <v>0.5636612525375789</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7938633673786093</v>
+        <v>0.5610308944634347</v>
       </c>
       <c r="O45" t="n">
-        <v>0.2458054027405656</v>
+        <v>0.605069541846299</v>
       </c>
       <c r="P45" t="n">
-        <v>0.2064737263301587</v>
+        <v>0.557346475600402</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.387962755961786</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.023779408423345</v>
+        <v>0.8223111646633321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3264,60 +3127,57 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
-      </c>
-      <c r="H46" t="n">
         <v>140</v>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I46" t="n">
-        <v>-0.7037509259978429</v>
+        <v>0.5776240848469052</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6759162203149739</v>
+        <v>0.5688782525434879</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5022663608661706</v>
+        <v>0.5675397047020446</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4718342106538306</v>
+        <v>0.6658644291299295</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2629945560954764</v>
+        <v>0.5789598511820296</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7532732070627335</v>
+        <v>0.5715321549359773</v>
       </c>
       <c r="O46" t="n">
-        <v>1.315052022538544</v>
+        <v>0.5741519515115957</v>
       </c>
       <c r="P46" t="n">
-        <v>1.481443770472924</v>
+        <v>0.5712921022523972</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5515117376823256</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.2635767352202899</v>
+        <v>0.8306692573895188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3326,60 +3186,57 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>40</v>
-      </c>
-      <c r="H47" t="n">
         <v>140</v>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I47" t="n">
-        <v>0.6730795348226767</v>
+        <v>0.5573509697326973</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2874991855571552</v>
+        <v>0.5528382753035543</v>
       </c>
       <c r="K47" t="n">
-        <v>1.022194952352067</v>
+        <v>0.5577617802191068</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3852806612422666</v>
+        <v>0.6050866069333267</v>
       </c>
       <c r="M47" t="n">
-        <v>0.5511008322262065</v>
+        <v>0.5609789377090411</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8450878866322673</v>
+        <v>0.5727798755504091</v>
       </c>
       <c r="O47" t="n">
-        <v>0.6058937807501418</v>
+        <v>0.6151825455531099</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6082040584607398</v>
+        <v>0.555045242038079</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.769916004748439</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.7449020591476704</v>
+        <v>0.8217422148875314</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3388,60 +3245,57 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>40</v>
-      </c>
-      <c r="H48" t="n">
         <v>140</v>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I48" t="n">
-        <v>1.163688294286948</v>
+        <v>0.6503449431913274</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6966609264225355</v>
+        <v>0.5673113574667421</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3004569916086351</v>
+        <v>0.6431766131451586</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6685929430654285</v>
+        <v>0.5611325972018146</v>
       </c>
       <c r="M48" t="n">
-        <v>0.31079392334909</v>
+        <v>0.6297860989709493</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8853805663783556</v>
+        <v>0.5639301690538366</v>
       </c>
       <c r="O48" t="n">
-        <v>0.9319471907829043</v>
+        <v>0.5852241619048963</v>
       </c>
       <c r="P48" t="n">
-        <v>0.9467760236285283</v>
+        <v>0.6733489309086508</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3240833453811264</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.3298955673297422</v>
+        <v>0.8489437318039317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3450,308 +3304,293 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>40</v>
-      </c>
-      <c r="H49" t="n">
         <v>140</v>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I49" t="n">
-        <v>-0.8903814723632686</v>
+        <v>0.6858583590529342</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8550570710664702</v>
+        <v>0.6161374765210559</v>
       </c>
       <c r="K49" t="n">
-        <v>1.100133636678214</v>
+        <v>0.6050264292752159</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5818002704430045</v>
+        <v>0.579099290722949</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8500713406906352</v>
+        <v>0.6614335307474067</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7491260034910932</v>
+        <v>0.5855314002810823</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8005879002048673</v>
+        <v>0.6192100932764162</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8935607195954849</v>
+        <v>0.7359756259006046</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.01462250779173</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.6101820321298347</v>
+        <v>0.8606415496985858</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G50" t="n">
-        <v>40</v>
-      </c>
-      <c r="H50" t="n">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
       </c>
       <c r="I50" t="n">
-        <v>-0.7134295676393073</v>
+        <v>3.383470965736787</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6865194801819994</v>
+        <v>0.5493029222995984</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2943759961888365</v>
+        <v>0.5829880199995124</v>
       </c>
       <c r="L50" t="n">
-        <v>0.4639699356126545</v>
+        <v>0.54959484944834</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2198560227230424</v>
+        <v>2.834744750207892</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7520554262138932</v>
+        <v>0.6363079934022302</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6940688986983997</v>
+        <v>0.9771049389440487</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7994159735410334</v>
+        <v>0.6681262668297098</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2086274062146775</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.3579747573447201</v>
+        <v>1.209814858976925</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>40</v>
-      </c>
-      <c r="H51" t="n">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
       </c>
       <c r="I51" t="n">
-        <v>-1.943866074639627</v>
+        <v>1.802234492272007</v>
       </c>
       <c r="J51" t="n">
-        <v>1.895599777978862</v>
+        <v>0.5739729770045966</v>
       </c>
       <c r="K51" t="n">
-        <v>1.878742871049166</v>
+        <v>1.752066222542175</v>
       </c>
       <c r="L51" t="n">
-        <v>1.394312152700704</v>
+        <v>1.766271170570949</v>
       </c>
       <c r="M51" t="n">
-        <v>1.540386693239043</v>
+        <v>1.105488778978743</v>
       </c>
       <c r="N51" t="n">
-        <v>1.06586713935351</v>
+        <v>0.6443780330185246</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8235854986450103</v>
+        <v>0.7371217362956274</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8729666623428293</v>
+        <v>0.5583675781494123</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.062021104320064</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.41857680764753</v>
+        <v>1.373082301000541</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>40</v>
-      </c>
-      <c r="H52" t="n">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
       </c>
       <c r="I52" t="n">
-        <v>0.03209945519797686</v>
+        <v>2.493300459712501</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1173206218804409</v>
+        <v>0.5679322267070122</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3982184530001698</v>
+        <v>0.9165581305347397</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2635872035722521</v>
+        <v>0.9432404198839645</v>
       </c>
       <c r="M52" t="n">
-        <v>0.4535750876448605</v>
+        <v>1.770583507298223</v>
       </c>
       <c r="N52" t="n">
-        <v>0.7964302934227432</v>
+        <v>0.8078832008959207</v>
       </c>
       <c r="O52" t="n">
-        <v>0.2545835534967933</v>
+        <v>0.6635445879023028</v>
       </c>
       <c r="P52" t="n">
-        <v>0.2281478914429055</v>
+        <v>0.7485640652616332</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5123029443482177</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.7191507074430051</v>
+        <v>1.24416509299374</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
+      <c r="A53" t="n">
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
-      </c>
-      <c r="H53" t="n">
-        <v>140</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1.91592878345578</v>
+      </c>
       <c r="J53" t="n">
-        <v>0.7107780577405395</v>
+        <v>0.5912625302331119</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7740287483955252</v>
+        <v>0.5981002424795636</v>
       </c>
       <c r="L53" t="n">
-        <v>0.5837934934834803</v>
+        <v>1.321395147601395</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6462154358515347</v>
+        <v>1.406396891687157</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8262837041973654</v>
+        <v>1.174207497213666</v>
       </c>
       <c r="O53" t="n">
-        <v>0.7104509158104588</v>
+        <v>0.6818125426988172</v>
       </c>
       <c r="P53" t="n">
-        <v>0.7670698638742562</v>
+        <v>0.6106789290576543</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6983129406770444</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.6251874053095151</v>
+        <v>1.27634539146534</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3760,60 +3599,57 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
-      </c>
-      <c r="H54" t="n">
         <v>220</v>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I54" t="n">
-        <v>-0.2015759531993362</v>
+        <v>1.650423970121666</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7057213115319749</v>
+        <v>0.5802511388012206</v>
       </c>
       <c r="K54" t="n">
-        <v>1.465678294636613</v>
+        <v>0.5642540496892207</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6245396355030324</v>
+        <v>1.410497138821804</v>
       </c>
       <c r="M54" t="n">
-        <v>1.020369299404004</v>
+        <v>1.317071518707592</v>
       </c>
       <c r="N54" t="n">
-        <v>1.091282685456358</v>
+        <v>1.251768247766969</v>
       </c>
       <c r="O54" t="n">
-        <v>1.497475130451548</v>
+        <v>0.6397459030691085</v>
       </c>
       <c r="P54" t="n">
-        <v>1.707791490714523</v>
+        <v>0.5961180120566574</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.812889352736605</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.579855861157224</v>
+        <v>1.269236850258873</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3822,60 +3658,57 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
-      </c>
-      <c r="H55" t="n">
         <v>220</v>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I55" t="n">
-        <v>-0.9145728797598742</v>
+        <v>1.862558565670518</v>
       </c>
       <c r="J55" t="n">
-        <v>1.189494782264266</v>
+        <v>0.5808058644842886</v>
       </c>
       <c r="K55" t="n">
-        <v>1.177738877221649</v>
+        <v>0.5762543228550047</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8975963211274183</v>
+        <v>1.204978563383655</v>
       </c>
       <c r="M55" t="n">
-        <v>0.4501278717887602</v>
+        <v>1.487846703815459</v>
       </c>
       <c r="N55" t="n">
-        <v>1.109493057754626</v>
+        <v>1.008518583855741</v>
       </c>
       <c r="O55" t="n">
-        <v>1.642993144606182</v>
+        <v>0.6404382163293748</v>
       </c>
       <c r="P55" t="n">
-        <v>1.833960915863705</v>
+        <v>0.6647306290388317</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.429041426222715</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.6742676523455056</v>
+        <v>1.234748749667933</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3884,60 +3717,57 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
-      </c>
-      <c r="H56" t="n">
         <v>220</v>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I56" t="n">
-        <v>-1.460785981765781</v>
+        <v>1.410516986533078</v>
       </c>
       <c r="J56" t="n">
-        <v>1.647472924651691</v>
+        <v>0.5644143704934085</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5666104619741086</v>
+        <v>0.5606204847218446</v>
       </c>
       <c r="L56" t="n">
-        <v>1.251367712638122</v>
+        <v>1.579382667718936</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2697607683159104</v>
+        <v>1.185441350907037</v>
       </c>
       <c r="N56" t="n">
-        <v>1.11094574211234</v>
+        <v>1.254656143263545</v>
       </c>
       <c r="O56" t="n">
-        <v>0.8574050084468876</v>
+        <v>0.784547664804101</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8911944574340682</v>
+        <v>0.6384150193013</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7367315395150005</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.3688774947543568</v>
+        <v>1.264171502476663</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3946,60 +3776,57 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>20</v>
-      </c>
-      <c r="H57" t="n">
         <v>220</v>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I57" t="n">
-        <v>-1.648076079956285</v>
+        <v>1.008240714211074</v>
       </c>
       <c r="J57" t="n">
-        <v>1.808347775158076</v>
+        <v>0.5551733108925005</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4030378955145023</v>
+        <v>0.856316598721411</v>
       </c>
       <c r="L57" t="n">
-        <v>1.188276972215239</v>
+        <v>2.425456052350598</v>
       </c>
       <c r="M57" t="n">
-        <v>0.2600663747278568</v>
+        <v>0.7825043521827929</v>
       </c>
       <c r="N57" t="n">
-        <v>1.060199170833985</v>
+        <v>0.6753683519763796</v>
       </c>
       <c r="O57" t="n">
-        <v>0.445390677845537</v>
+        <v>0.6899728219811816</v>
       </c>
       <c r="P57" t="n">
-        <v>0.4091736954739581</v>
+        <v>0.6095154166370998</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.2898719454764841</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.2460402296855756</v>
+        <v>1.346163185545352</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4008,60 +3835,57 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
-      </c>
-      <c r="H58" t="n">
         <v>220</v>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I58" t="n">
-        <v>-1.277139934314135</v>
+        <v>0.9025088373459684</v>
       </c>
       <c r="J58" t="n">
-        <v>1.464059370445173</v>
+        <v>0.5736472897339225</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2931683625008578</v>
+        <v>0.5752655104926938</v>
       </c>
       <c r="L58" t="n">
-        <v>1.111387349908518</v>
+        <v>2.658828322626706</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3504319099787065</v>
+        <v>0.7250362786583402</v>
       </c>
       <c r="N58" t="n">
-        <v>1.033848656907512</v>
+        <v>0.8620986814634195</v>
       </c>
       <c r="O58" t="n">
-        <v>0.2328353565055425</v>
+        <v>0.8442273904614792</v>
       </c>
       <c r="P58" t="n">
-        <v>0.2110882345163646</v>
+        <v>0.6701934479828816</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.2657078783513784</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.3553469626913123</v>
+        <v>1.356300330518847</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4070,60 +3894,57 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>20</v>
-      </c>
-      <c r="H59" t="n">
         <v>220</v>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I59" t="n">
-        <v>-2.076556048531524</v>
+        <v>1.048139785464812</v>
       </c>
       <c r="J59" t="n">
-        <v>2.190039020168546</v>
+        <v>0.5855587019256715</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4439849730206946</v>
+        <v>0.784340329893588</v>
       </c>
       <c r="L59" t="n">
-        <v>1.510181414261712</v>
+        <v>2.028570839978889</v>
       </c>
       <c r="M59" t="n">
-        <v>0.4337842462647947</v>
+        <v>0.940094491149715</v>
       </c>
       <c r="N59" t="n">
-        <v>0.9982545110277867</v>
+        <v>0.6845255126122225</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3884660166424896</v>
+        <v>0.6192160669676186</v>
       </c>
       <c r="P59" t="n">
-        <v>0.3214945774238256</v>
+        <v>0.7088284563325741</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.5674029733794896</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.5362521521382189</v>
+        <v>1.28179038461023</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4132,60 +3953,57 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
-      </c>
-      <c r="H60" t="n">
         <v>220</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I60" t="n">
-        <v>-3.088003517410599</v>
+        <v>1.082162151524811</v>
       </c>
       <c r="J60" t="n">
-        <v>3.188137905266903</v>
+        <v>0.5731363015222963</v>
       </c>
       <c r="K60" t="n">
-        <v>1.445979854968563</v>
+        <v>0.5653509672562637</v>
       </c>
       <c r="L60" t="n">
-        <v>2.433670484549586</v>
+        <v>2.010788252962945</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7026423577547408</v>
+        <v>0.934400579243187</v>
       </c>
       <c r="N60" t="n">
-        <v>1.051446522596537</v>
+        <v>0.6257662600656552</v>
       </c>
       <c r="O60" t="n">
-        <v>1.343135274275057</v>
+        <v>0.6049342900089456</v>
       </c>
       <c r="P60" t="n">
-        <v>1.391379669097953</v>
+        <v>0.6249699184098567</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.786116809654324</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.6990906421321851</v>
+        <v>1.276521847083847</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4194,370 +4012,352 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
-      </c>
-      <c r="H61" t="n">
         <v>220</v>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I61" t="n">
-        <v>-3.213455655609158</v>
+        <v>1.554105822388862</v>
       </c>
       <c r="J61" t="n">
-        <v>3.307093619172947</v>
+        <v>0.5787011101913996</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5104192078707293</v>
+        <v>0.6988975473317696</v>
       </c>
       <c r="L61" t="n">
-        <v>2.514662292167398</v>
+        <v>1.452225609037064</v>
       </c>
       <c r="M61" t="n">
-        <v>0.4026575143410094</v>
+        <v>1.255050099272163</v>
       </c>
       <c r="N61" t="n">
-        <v>1.005583890923297</v>
+        <v>0.5983121190675379</v>
       </c>
       <c r="O61" t="n">
-        <v>0.9576356175776058</v>
+        <v>0.6686299322916678</v>
       </c>
       <c r="P61" t="n">
-        <v>0.9295632006447725</v>
+        <v>0.679223228071335</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6276684545315685</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.2793688795733196</v>
+        <v>1.260573084528078</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
-      </c>
-      <c r="H62" t="n">
         <v>220</v>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I62" t="n">
-        <v>-3.573634171375599</v>
+        <v>0.5494915204959508</v>
       </c>
       <c r="J62" t="n">
-        <v>3.653734985064096</v>
+        <v>0.5516296452906718</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5491717542814485</v>
+        <v>0.5474771331136125</v>
       </c>
       <c r="L62" t="n">
-        <v>2.898790314967354</v>
+        <v>0.5459897019002777</v>
       </c>
       <c r="M62" t="n">
-        <v>0.5649610522392398</v>
+        <v>0.5534403027004898</v>
       </c>
       <c r="N62" t="n">
-        <v>1.028575280990741</v>
+        <v>0.5933592580143743</v>
       </c>
       <c r="O62" t="n">
-        <v>0.5466699683125874</v>
+        <v>0.8887205869812038</v>
       </c>
       <c r="P62" t="n">
-        <v>0.4335533199081137</v>
+        <v>0.5536510576922191</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.007235029980807</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.2949044932330036</v>
+        <v>0.7871298802474433</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
-      </c>
-      <c r="H63" t="n">
         <v>220</v>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I63" t="n">
-        <v>-3.095788868582223</v>
+        <v>0.6276382082803637</v>
       </c>
       <c r="J63" t="n">
-        <v>3.158492391792671</v>
+        <v>0.5851610452561635</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3131999243286147</v>
+        <v>0.5708619480702513</v>
       </c>
       <c r="L63" t="n">
-        <v>2.442279170426485</v>
+        <v>0.5895850628845134</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2730768592111344</v>
+        <v>0.5937691212366967</v>
       </c>
       <c r="N63" t="n">
-        <v>0.9101937927010837</v>
+        <v>1.160983144248415</v>
       </c>
       <c r="O63" t="n">
-        <v>0.2494429023954746</v>
+        <v>1.067700040913921</v>
       </c>
       <c r="P63" t="n">
-        <v>0.2055956189774412</v>
+        <v>0.5825694702468011</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.460660276965743</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.3020801315956657</v>
+        <v>0.79742175780637</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>20</v>
-      </c>
-      <c r="H64" t="n">
         <v>220</v>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I64" t="n">
-        <v>-4.410606249881896</v>
+        <v>0.5979646823768796</v>
       </c>
       <c r="J64" t="n">
-        <v>4.460716271646113</v>
+        <v>0.5802985238666131</v>
       </c>
       <c r="K64" t="n">
-        <v>1.225254090384796</v>
+        <v>0.5822169716874256</v>
       </c>
       <c r="L64" t="n">
-        <v>3.673784077181883</v>
+        <v>0.6093903370444613</v>
       </c>
       <c r="M64" t="n">
-        <v>1.298663604878214</v>
+        <v>0.6138761916369659</v>
       </c>
       <c r="N64" t="n">
-        <v>1.355378896961177</v>
+        <v>0.6371600744233962</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8346255046185791</v>
+        <v>0.6270099410757479</v>
       </c>
       <c r="P64" t="n">
-        <v>0.7057894087407059</v>
+        <v>0.5902542208681136</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.755291954586803</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.247621427057495</v>
+        <v>0.8023614284907864</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F65" t="n">
+        <v>20</v>
+      </c>
+      <c r="G65" t="n">
+        <v>220</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7725627759082718</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5746359601221263</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9377521448333014</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.7758055617217517</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8621868984304802</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.6035950720808327</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.8265342503624776</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7488208352658632</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.9166013648606663</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AR(2)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
         <v>200</v>
       </c>
-      <c r="G65" t="n">
+      <c r="F66" t="n">
         <v>20</v>
       </c>
-      <c r="H65" t="n">
+      <c r="G66" t="n">
         <v>220</v>
       </c>
-      <c r="I65" t="n">
-        <v>-4.200155815680633</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4.246104640363646</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.319621262112084</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.436161343805597</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.6808583382870501</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1.137457714259379</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.00990782203453</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.9157723035146014</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.271821862688532</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.3641228008648402</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>AR(1)</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>200</v>
-      </c>
-      <c r="G66" t="n">
-        <v>20</v>
-      </c>
-      <c r="H66" t="n">
-        <v>220</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.595185369460004</v>
+      </c>
       <c r="J66" t="n">
-        <v>2.584951249793842</v>
+        <v>0.580851431607628</v>
       </c>
       <c r="K66" t="n">
-        <v>0.8094887465678884</v>
+        <v>0.7349430740627703</v>
       </c>
       <c r="L66" t="n">
-        <v>1.998558090729362</v>
+        <v>0.569437194802383</v>
       </c>
       <c r="M66" t="n">
-        <v>0.5589500164326185</v>
+        <v>0.5833927556022342</v>
       </c>
       <c r="N66" t="n">
-        <v>1.074388326877068</v>
+        <v>1.174341185759494</v>
       </c>
       <c r="O66" t="n">
-        <v>0.8338318686426683</v>
+        <v>0.8158814169458799</v>
       </c>
       <c r="P66" t="n">
-        <v>0.8296964076925026</v>
+        <v>0.5726978723052052</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.000869958674121</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.5789857272690585</v>
+        <v>0.7954986562896426</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4566,60 +4366,57 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>20</v>
-      </c>
-      <c r="H67" t="n">
         <v>220</v>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I67" t="n">
-        <v>0.9914812015402188</v>
+        <v>0.5903213774428799</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9387237316475896</v>
+        <v>0.5840470333818335</v>
       </c>
       <c r="K67" t="n">
-        <v>0.4042331015009086</v>
+        <v>0.5841347741146695</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6439305063504329</v>
+        <v>0.5882156865043746</v>
       </c>
       <c r="M67" t="n">
-        <v>0.3686066443181719</v>
+        <v>0.5964202541433362</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8043006581371054</v>
+        <v>0.6311498746827278</v>
       </c>
       <c r="O67" t="n">
-        <v>0.2148175920488615</v>
+        <v>0.8147649482023659</v>
       </c>
       <c r="P67" t="n">
-        <v>0.2417265898915447</v>
+        <v>0.5867868842483831</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.144979844255738</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.3512033610276755</v>
+        <v>0.8019591499582559</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4628,60 +4425,57 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
-      </c>
-      <c r="H68" t="n">
         <v>220</v>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I68" t="n">
-        <v>0.8909063582465897</v>
+        <v>0.8978969193618207</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8477417161159864</v>
+        <v>0.6126101076401894</v>
       </c>
       <c r="K68" t="n">
-        <v>1.258711501925087</v>
+        <v>0.9397860780904926</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5901231953960997</v>
+        <v>0.8753497474033244</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4788032219880293</v>
+        <v>0.9801862840170934</v>
       </c>
       <c r="N68" t="n">
-        <v>0.7949317789067948</v>
+        <v>0.8197249313898862</v>
       </c>
       <c r="O68" t="n">
-        <v>0.4455280255157411</v>
+        <v>1.235067426768507</v>
       </c>
       <c r="P68" t="n">
-        <v>0.5582799007869911</v>
+        <v>0.9645961417495476</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7978467644869002</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.3587605772637681</v>
+        <v>0.9593892159145813</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4690,60 +4484,57 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>20</v>
-      </c>
-      <c r="H69" t="n">
         <v>220</v>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I69" t="n">
-        <v>-1.216342881984459</v>
+        <v>0.5575789667836506</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5007156951017602</v>
+        <v>0.6032162962378764</v>
       </c>
       <c r="K69" t="n">
-        <v>0.967020089647492</v>
+        <v>0.7650870397664395</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6823987126806789</v>
+        <v>0.5596222339119835</v>
       </c>
       <c r="M69" t="n">
-        <v>0.8657808917197922</v>
+        <v>0.5657890152790811</v>
       </c>
       <c r="N69" t="n">
-        <v>0.6872249485869524</v>
+        <v>0.5870020248879496</v>
       </c>
       <c r="O69" t="n">
-        <v>0.7142903032440666</v>
+        <v>0.8980531270240928</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6387582541382355</v>
+        <v>0.5573572069007393</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6258428488119376</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.5943379311680078</v>
+        <v>0.80100432696829</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4752,60 +4543,57 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
-      </c>
-      <c r="H70" t="n">
         <v>220</v>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I70" t="n">
-        <v>0.2402228965835632</v>
+        <v>0.5880195718781167</v>
       </c>
       <c r="J70" t="n">
-        <v>0.383711415516333</v>
+        <v>0.5808143847595679</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6797297411293426</v>
+        <v>0.5899550919986645</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2910256262994491</v>
+        <v>0.5823670078510329</v>
       </c>
       <c r="M70" t="n">
-        <v>0.8181819265365897</v>
+        <v>0.5906870542512782</v>
       </c>
       <c r="N70" t="n">
-        <v>0.7497008665757737</v>
+        <v>0.6704439539275734</v>
       </c>
       <c r="O70" t="n">
-        <v>0.2462156455804341</v>
+        <v>0.607418074184914</v>
       </c>
       <c r="P70" t="n">
-        <v>0.2606635776141003</v>
+        <v>0.5803099010465931</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.8561971055879808</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.5848258553493577</v>
+        <v>0.8043730301734749</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4814,60 +4602,57 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
-      </c>
-      <c r="H71" t="n">
         <v>220</v>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I71" t="n">
-        <v>-0.8845727219512742</v>
+        <v>0.5913931681454215</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3101468412007832</v>
+        <v>0.5555586748870142</v>
       </c>
       <c r="K71" t="n">
-        <v>0.637023808056567</v>
+        <v>0.5483642243533283</v>
       </c>
       <c r="L71" t="n">
-        <v>0.4958539920540762</v>
+        <v>0.5546723750801899</v>
       </c>
       <c r="M71" t="n">
-        <v>1.004270898804839</v>
+        <v>0.5582696217144537</v>
       </c>
       <c r="N71" t="n">
-        <v>0.681098832593077</v>
+        <v>1.013821950069597</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2160920775810191</v>
+        <v>0.817101845150294</v>
       </c>
       <c r="P71" t="n">
-        <v>0.2419175630307779</v>
+        <v>0.5671554724077388</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.9091746612171011</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.107878304045932</v>
+        <v>0.7927977606907077</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4876,60 +4661,57 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>20</v>
-      </c>
-      <c r="H72" t="n">
         <v>220</v>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I72" t="n">
-        <v>-1.66763940752968</v>
+        <v>0.6601774622846851</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8207340119556411</v>
+        <v>0.5643317507762597</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9630207109280651</v>
+        <v>0.8693507289461814</v>
       </c>
       <c r="L72" t="n">
-        <v>1.109500859493552</v>
+        <v>0.6670704793715641</v>
       </c>
       <c r="M72" t="n">
-        <v>0.712957978389137</v>
+        <v>0.724950032699782</v>
       </c>
       <c r="N72" t="n">
-        <v>0.8082713950061249</v>
+        <v>0.7680094132207654</v>
       </c>
       <c r="O72" t="n">
-        <v>1.918564440099304</v>
+        <v>0.9507473925349815</v>
       </c>
       <c r="P72" t="n">
-        <v>1.901576095309994</v>
+        <v>0.6426131271962067</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.8033584703595817</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.6562801936948947</v>
+        <v>0.8609583701626011</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4938,432 +4720,411 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
-      </c>
-      <c r="H73" t="n">
         <v>220</v>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I73" t="n">
-        <v>-0.9098604003261963</v>
+        <v>0.5945519093981032</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3164931662301954</v>
+        <v>0.5922411632949646</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7109643464889539</v>
+        <v>0.7985668657128517</v>
       </c>
       <c r="L73" t="n">
-        <v>0.4969672663935999</v>
+        <v>0.6017071586372027</v>
       </c>
       <c r="M73" t="n">
-        <v>0.3981183997378999</v>
+        <v>0.6048933449859312</v>
       </c>
       <c r="N73" t="n">
-        <v>0.6787748565045266</v>
+        <v>0.7213056227833912</v>
       </c>
       <c r="O73" t="n">
-        <v>0.2377909075633483</v>
+        <v>0.6312905328195414</v>
       </c>
       <c r="P73" t="n">
-        <v>0.2737819176077328</v>
+        <v>0.5859108534867741</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.922041824715267</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.4027761380947821</v>
+        <v>0.8134106103512911</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
-      </c>
-      <c r="H74" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I74" t="n">
-        <v>0.9589804629659721</v>
+        <v>1.35602027808802</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9251642180593735</v>
+        <v>0.5624947557011756</v>
       </c>
       <c r="K74" t="n">
-        <v>1.615253974343418</v>
+        <v>0.9234257710218241</v>
       </c>
       <c r="L74" t="n">
-        <v>0.6126746946173955</v>
+        <v>0.9049047795865746</v>
       </c>
       <c r="M74" t="n">
-        <v>0.4808019698914325</v>
+        <v>0.8947419142013427</v>
       </c>
       <c r="N74" t="n">
-        <v>0.8023969602565386</v>
+        <v>0.6479288006326775</v>
       </c>
       <c r="O74" t="n">
-        <v>0.6256562247951697</v>
+        <v>0.5983502692864812</v>
       </c>
       <c r="P74" t="n">
-        <v>0.7002557565935218</v>
+        <v>0.5762720294161744</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7293836579799242</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.109222702341375</v>
+        <v>1.404625708558932</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
-      </c>
-      <c r="H75" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I75" t="n">
-        <v>-0.3029359031617396</v>
+        <v>1.15598616022238</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2079695835376931</v>
+        <v>0.5607615717639777</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3325310638947651</v>
+        <v>0.5672767981355715</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2666912733955616</v>
+        <v>1.097435273481141</v>
       </c>
       <c r="M75" t="n">
-        <v>0.5270288053553955</v>
+        <v>1.056644531102334</v>
       </c>
       <c r="N75" t="n">
-        <v>0.712062163378427</v>
+        <v>0.6060029885505757</v>
       </c>
       <c r="O75" t="n">
-        <v>0.2506012859597549</v>
+        <v>0.5812625126211626</v>
       </c>
       <c r="P75" t="n">
-        <v>0.2692798371050157</v>
+        <v>0.5595184452189789</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.4419392131892971</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.6198165473835437</v>
+        <v>1.405063486931971</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
-      </c>
-      <c r="H76" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I76" t="n">
-        <v>0.3927678523136447</v>
+        <v>0.958371817756307</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4675507116817895</v>
+        <v>0.5904788303731463</v>
       </c>
       <c r="K76" t="n">
-        <v>0.4652781748723802</v>
+        <v>0.7111588608496292</v>
       </c>
       <c r="L76" t="n">
-        <v>0.3303153104851654</v>
+        <v>0.724273333402535</v>
       </c>
       <c r="M76" t="n">
-        <v>0.36072010601529</v>
+        <v>0.730745354954243</v>
       </c>
       <c r="N76" t="n">
-        <v>0.7587353392438448</v>
+        <v>0.8545954945829053</v>
       </c>
       <c r="O76" t="n">
-        <v>0.2701302058548528</v>
+        <v>0.5932260956211659</v>
       </c>
       <c r="P76" t="n">
-        <v>0.2886734635969013</v>
+        <v>0.5887720853320029</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.6407240106211664</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.5927729067523301</v>
+        <v>1.432779502786387</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
-      </c>
-      <c r="H77" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I77" t="n">
-        <v>1.924772703639918</v>
+        <v>0.9110537067834906</v>
       </c>
       <c r="J77" t="n">
-        <v>1.84660464319728</v>
+        <v>0.6136235348342431</v>
       </c>
       <c r="K77" t="n">
-        <v>1.904706441974659</v>
+        <v>0.5985880860820989</v>
       </c>
       <c r="L77" t="n">
-        <v>1.415870477769859</v>
+        <v>0.6779548080877184</v>
       </c>
       <c r="M77" t="n">
-        <v>1.016279761693273</v>
+        <v>0.6899526858910451</v>
       </c>
       <c r="N77" t="n">
-        <v>1.127810543879192</v>
+        <v>0.9228243481825064</v>
       </c>
       <c r="O77" t="n">
-        <v>1.922422944749866</v>
+        <v>0.6041179106281498</v>
       </c>
       <c r="P77" t="n">
-        <v>2.080092852760978</v>
+        <v>0.5830622569731757</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.739574233585164</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.6606793624898388</v>
+        <v>1.455262267708704</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AR(2)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F78" t="n">
+        <v>40</v>
+      </c>
+      <c r="G78" t="n">
+        <v>240</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7569204135934606</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5970661532228285</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.7825427208500861</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.5905973278470226</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.6101776509298733</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.663963298676196</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.8223218726282414</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.6202268885081333</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.519494691851354</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AR(1)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
         <v>200</v>
       </c>
-      <c r="G78" t="n">
-        <v>20</v>
-      </c>
-      <c r="H78" t="n">
-        <v>220</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.93031780170301</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.854967106902761</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2.088370396771349</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1.408134467979111</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9351841331372535</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1.120572662741614</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.03664274392162</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.110058118062978</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.671443840866979</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.8848380275301585</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
-      </c>
-      <c r="H79" t="n">
-        <v>220</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>240</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.7048906208562</v>
+      </c>
       <c r="J79" t="n">
-        <v>0.7850435700955988</v>
+        <v>0.5532663627608391</v>
       </c>
       <c r="K79" t="n">
-        <v>1.002236945961082</v>
+        <v>0.5567734361460609</v>
       </c>
       <c r="L79" t="n">
-        <v>0.6952905319095818</v>
+        <v>0.5481996592796816</v>
       </c>
       <c r="M79" t="n">
-        <v>0.6638945614655921</v>
+        <v>0.5710922732962327</v>
       </c>
       <c r="N79" t="n">
-        <v>0.8104900838174977</v>
+        <v>0.6243680362408011</v>
       </c>
       <c r="O79" t="n">
-        <v>0.6748960330761699</v>
+        <v>0.7135741115420364</v>
       </c>
       <c r="P79" t="n">
-        <v>0.7137553272082311</v>
+        <v>0.5494386561874821</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.9402088729730865</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.660282658928472</v>
+        <v>1.531559177376796</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5372,60 +5133,57 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G80" t="n">
-        <v>40</v>
-      </c>
-      <c r="H80" t="n">
         <v>240</v>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I80" t="n">
-        <v>-4.686302252691426</v>
+        <v>1.446048716520652</v>
       </c>
       <c r="J80" t="n">
-        <v>2.657461361771341</v>
+        <v>0.5882569894158405</v>
       </c>
       <c r="K80" t="n">
-        <v>0.6625465349518939</v>
+        <v>0.8282780827221495</v>
       </c>
       <c r="L80" t="n">
-        <v>3.028705749832745</v>
+        <v>0.9102846298783698</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3314821238786346</v>
+        <v>0.8935498514695956</v>
       </c>
       <c r="N80" t="n">
-        <v>1.090671768786392</v>
+        <v>0.7215097455046336</v>
       </c>
       <c r="O80" t="n">
-        <v>0.3211414135524675</v>
+        <v>0.6045591262044072</v>
       </c>
       <c r="P80" t="n">
-        <v>0.4679657924126956</v>
+        <v>0.5889420875003037</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.5635057754430457</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.2366128984311329</v>
+        <v>1.434425034185726</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5434,60 +5192,57 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>40</v>
-      </c>
-      <c r="H81" t="n">
         <v>240</v>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I81" t="n">
-        <v>-4.918557240899578</v>
+        <v>0.9273719999713195</v>
       </c>
       <c r="J81" t="n">
-        <v>2.835260101050577</v>
+        <v>0.5666280166753804</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6030421608667634</v>
+        <v>0.5973760971636181</v>
       </c>
       <c r="L81" t="n">
-        <v>3.098997398815374</v>
+        <v>0.7871624325151303</v>
       </c>
       <c r="M81" t="n">
-        <v>0.4645793214529217</v>
+        <v>0.7864019165640604</v>
       </c>
       <c r="N81" t="n">
-        <v>1.047489994045621</v>
+        <v>0.7522310478277616</v>
       </c>
       <c r="O81" t="n">
-        <v>0.293663932878453</v>
+        <v>1.202562728690399</v>
       </c>
       <c r="P81" t="n">
-        <v>0.233447607687864</v>
+        <v>0.567082055190507</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.52373155088356</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.2451570989573907</v>
+        <v>1.453772510949161</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5496,60 +5251,57 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>40</v>
-      </c>
-      <c r="H82" t="n">
         <v>240</v>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I82" t="n">
-        <v>-4.709037534124855</v>
+        <v>0.8226296415379031</v>
       </c>
       <c r="J82" t="n">
-        <v>2.633897198143639</v>
+        <v>0.5860139374286204</v>
       </c>
       <c r="K82" t="n">
-        <v>0.6828131159981328</v>
+        <v>0.9304580914210949</v>
       </c>
       <c r="L82" t="n">
-        <v>2.827039992222316</v>
+        <v>0.5652165478882604</v>
       </c>
       <c r="M82" t="n">
-        <v>0.336303232236953</v>
+        <v>0.5845625263060141</v>
       </c>
       <c r="N82" t="n">
-        <v>1.056687157655636</v>
+        <v>1.200715443184874</v>
       </c>
       <c r="O82" t="n">
-        <v>0.2449929112510337</v>
+        <v>1.336115602452441</v>
       </c>
       <c r="P82" t="n">
-        <v>0.2228290203516469</v>
+        <v>0.5958799362141116</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.5610049915668291</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.2714903298956887</v>
+        <v>1.560443874864858</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5558,60 +5310,57 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G83" t="n">
-        <v>40</v>
-      </c>
-      <c r="H83" t="n">
         <v>240</v>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I83" t="n">
-        <v>-3.801495568152829</v>
+        <v>0.7894505553296239</v>
       </c>
       <c r="J83" t="n">
-        <v>1.876922904427134</v>
+        <v>0.5904119245403651</v>
       </c>
       <c r="K83" t="n">
-        <v>1.305547604153382</v>
+        <v>0.6297695765608725</v>
       </c>
       <c r="L83" t="n">
-        <v>2.273786479578619</v>
+        <v>0.5959405562722382</v>
       </c>
       <c r="M83" t="n">
-        <v>0.2803502623618007</v>
+        <v>0.612352708586799</v>
       </c>
       <c r="N83" t="n">
-        <v>1.145122874189604</v>
+        <v>1.303813469872801</v>
       </c>
       <c r="O83" t="n">
-        <v>0.4868058976950392</v>
+        <v>1.530939959945685</v>
       </c>
       <c r="P83" t="n">
-        <v>0.6724836708719566</v>
+        <v>0.5740576309045375</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6289716551823894</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.3284811315451375</v>
+        <v>1.578894894798107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5620,60 +5369,57 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G84" t="n">
-        <v>40</v>
-      </c>
-      <c r="H84" t="n">
         <v>240</v>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I84" t="n">
-        <v>-2.419502675327125</v>
+        <v>1.265538117626047</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9479486621079218</v>
+        <v>0.5912540625276401</v>
       </c>
       <c r="K84" t="n">
-        <v>2.611778967553763</v>
+        <v>1.047532277417669</v>
       </c>
       <c r="L84" t="n">
-        <v>1.294993138748051</v>
+        <v>0.9745401412882908</v>
       </c>
       <c r="M84" t="n">
-        <v>0.6916800084308209</v>
+        <v>0.9535974879548508</v>
       </c>
       <c r="N84" t="n">
-        <v>1.292906752758586</v>
+        <v>0.8071981540776362</v>
       </c>
       <c r="O84" t="n">
-        <v>1.508677056241337</v>
+        <v>0.5901801499515369</v>
       </c>
       <c r="P84" t="n">
-        <v>1.795439917890162</v>
+        <v>0.6576456932004178</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.253540635120653</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.8154827584376065</v>
+        <v>1.423961918235204</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5682,494 +5428,470 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>40</v>
-      </c>
-      <c r="H85" t="n">
         <v>240</v>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I85" t="n">
-        <v>-3.690290083667389</v>
+        <v>0.8742565619113106</v>
       </c>
       <c r="J85" t="n">
-        <v>1.761921080589211</v>
+        <v>0.5535199258783398</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3983826865210648</v>
+        <v>0.8079723896416883</v>
       </c>
       <c r="L85" t="n">
-        <v>2.048588442197239</v>
+        <v>0.5776671590434631</v>
       </c>
       <c r="M85" t="n">
-        <v>0.722897864998163</v>
+        <v>0.5981371517465003</v>
       </c>
       <c r="N85" t="n">
-        <v>1.127628416982196</v>
+        <v>0.6155608983034436</v>
       </c>
       <c r="O85" t="n">
-        <v>0.243642463085424</v>
+        <v>0.6891251329933593</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2444319526898509</v>
+        <v>0.5683801463602229</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6143984418783461</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.7247970635466269</v>
+        <v>1.50411181702374</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G86" t="n">
-        <v>40</v>
-      </c>
-      <c r="H86" t="n">
         <v>240</v>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I86" t="n">
-        <v>-3.452801414606356</v>
+        <v>0.5767784002984374</v>
       </c>
       <c r="J86" t="n">
-        <v>1.578402290479108</v>
+        <v>0.5635014600228428</v>
       </c>
       <c r="K86" t="n">
-        <v>1.577344575269828</v>
+        <v>0.576467971181907</v>
       </c>
       <c r="L86" t="n">
-        <v>1.906579949944681</v>
+        <v>0.577286896274762</v>
       </c>
       <c r="M86" t="n">
-        <v>0.3088285516068477</v>
+        <v>0.5963036336501505</v>
       </c>
       <c r="N86" t="n">
-        <v>1.14094161696395</v>
+        <v>0.70730792794638</v>
       </c>
       <c r="O86" t="n">
-        <v>0.5255726422643224</v>
+        <v>0.7500405361448539</v>
       </c>
       <c r="P86" t="n">
-        <v>0.450125316808794</v>
+        <v>0.5730353165011107</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.638972288166292</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.257406463476068</v>
+        <v>0.8016799283139457</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>40</v>
-      </c>
-      <c r="H87" t="n">
         <v>240</v>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I87" t="n">
-        <v>-2.883472989939663</v>
+        <v>0.6003673870527162</v>
       </c>
       <c r="J87" t="n">
-        <v>1.192547672965546</v>
+        <v>0.5923522393532931</v>
       </c>
       <c r="K87" t="n">
-        <v>1.093090290862481</v>
+        <v>0.5938902360307532</v>
       </c>
       <c r="L87" t="n">
-        <v>1.500270263863446</v>
+        <v>0.5926989389067483</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2496790736755307</v>
+        <v>0.6038799507165354</v>
       </c>
       <c r="N87" t="n">
-        <v>1.194433745989001</v>
+        <v>0.6903806973835905</v>
       </c>
       <c r="O87" t="n">
-        <v>0.4086351613837117</v>
+        <v>0.6235633011347187</v>
       </c>
       <c r="P87" t="n">
-        <v>0.5136777077607304</v>
+        <v>0.607244449600628</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.9205190434890569</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.2487973474813153</v>
+        <v>0.8420003202120758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>40</v>
-      </c>
-      <c r="H88" t="n">
         <v>240</v>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I88" t="n">
-        <v>-3.109675196371052</v>
+        <v>0.7985728054012181</v>
       </c>
       <c r="J88" t="n">
-        <v>1.324628246223126</v>
+        <v>0.5577008079917619</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2408408467194325</v>
+        <v>0.8944460605805713</v>
       </c>
       <c r="L88" t="n">
-        <v>1.577763396561924</v>
+        <v>0.8528822760996022</v>
       </c>
       <c r="M88" t="n">
-        <v>0.3272265460126826</v>
+        <v>0.8334770867267292</v>
       </c>
       <c r="N88" t="n">
-        <v>1.160831121846536</v>
+        <v>0.7657077323007502</v>
       </c>
       <c r="O88" t="n">
-        <v>0.2434509859214948</v>
+        <v>0.6676748804792351</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2360605835630895</v>
+        <v>0.5681815669368842</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.9035697372899374</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.4204403084310797</v>
+        <v>1.130638141160514</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>40</v>
-      </c>
-      <c r="H89" t="n">
         <v>240</v>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I89" t="n">
-        <v>-1.935540456836263</v>
+        <v>0.8086845396358687</v>
       </c>
       <c r="J89" t="n">
-        <v>0.7019161627349555</v>
+        <v>0.6267126724084044</v>
       </c>
       <c r="K89" t="n">
-        <v>1.242229151801721</v>
+        <v>1.164931059105488</v>
       </c>
       <c r="L89" t="n">
-        <v>0.937971353980561</v>
+        <v>0.7104105308966193</v>
       </c>
       <c r="M89" t="n">
-        <v>0.4430809105065286</v>
+        <v>0.7670688434340954</v>
       </c>
       <c r="N89" t="n">
-        <v>1.287770906453702</v>
+        <v>0.6139531310540094</v>
       </c>
       <c r="O89" t="n">
-        <v>0.5263109260512141</v>
+        <v>0.8441144855564</v>
       </c>
       <c r="P89" t="n">
-        <v>0.6407429455722569</v>
+        <v>0.7052227074125892</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.393021475854536</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.5397484305383</v>
+        <v>0.7940479598001046</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G90" t="n">
-        <v>40</v>
-      </c>
-      <c r="H90" t="n">
         <v>240</v>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I90" t="n">
-        <v>-2.33105318264343</v>
+        <v>0.7181857899287265</v>
       </c>
       <c r="J90" t="n">
-        <v>0.8700682384403089</v>
+        <v>0.5738817199591012</v>
       </c>
       <c r="K90" t="n">
-        <v>0.467409945487184</v>
+        <v>0.5983292552442946</v>
       </c>
       <c r="L90" t="n">
-        <v>1.130557600508573</v>
+        <v>0.6554308561327559</v>
       </c>
       <c r="M90" t="n">
-        <v>0.340007670232053</v>
+        <v>0.6985182110758154</v>
       </c>
       <c r="N90" t="n">
-        <v>1.231925274178081</v>
+        <v>1.164854052955971</v>
       </c>
       <c r="O90" t="n">
-        <v>0.4847049201468836</v>
+        <v>0.6919785213078983</v>
       </c>
       <c r="P90" t="n">
-        <v>0.6016477068476164</v>
+        <v>0.5873442234201497</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.570411045507889</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.3656598110299265</v>
+        <v>0.783038338496049</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>AR(2)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F91" t="n">
+        <v>40</v>
+      </c>
+      <c r="G91" t="n">
+        <v>240</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.6268572524147136</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5650122729924312</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.594287541631262</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.5637922178807201</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.5744094176704366</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.5974761504144162</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.8413445188003891</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.5926898067716083</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.8190572469933542</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AR(2)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
         <v>200</v>
       </c>
-      <c r="G91" t="n">
+      <c r="F92" t="n">
         <v>40</v>
       </c>
-      <c r="H91" t="n">
+      <c r="G92" t="n">
         <v>240</v>
       </c>
-      <c r="I91" t="n">
-        <v>-3.019130020018035</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.238542274807936</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.2310715513314606</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1.539714368602366</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.5858901745703881</v>
-      </c>
-      <c r="N91" t="n">
-        <v>1.14841893121601</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.6626878097835844</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0.6090517852592304</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1.065066967861691</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.7251999384316444</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>AR(1)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>200</v>
-      </c>
-      <c r="G92" t="n">
-        <v>40</v>
-      </c>
-      <c r="H92" t="n">
-        <v>240</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.6885013994068901</v>
+      </c>
       <c r="J92" t="n">
-        <v>1.634959682811734</v>
+        <v>0.5535333791291075</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9263414526264255</v>
+        <v>0.7184934582716103</v>
       </c>
       <c r="L92" t="n">
-        <v>1.930414011237992</v>
+        <v>0.7000996169954985</v>
       </c>
       <c r="M92" t="n">
-        <v>0.4235004783302771</v>
+        <v>0.676006907564232</v>
       </c>
       <c r="N92" t="n">
-        <v>1.160402380088776</v>
+        <v>0.6001730813201422</v>
       </c>
       <c r="O92" t="n">
-        <v>0.4958571766879138</v>
+        <v>0.6402015493631821</v>
       </c>
       <c r="P92" t="n">
-        <v>0.5573253339763246</v>
+        <v>0.5629262094211678</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.9697261340203521</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.4316061316834932</v>
+        <v>1.032041457815262</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6178,60 +5900,57 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G93" t="n">
-        <v>40</v>
-      </c>
-      <c r="H93" t="n">
         <v>240</v>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I93" t="n">
-        <v>1.424431760862154</v>
+        <v>0.5948561476936868</v>
       </c>
       <c r="J93" t="n">
-        <v>0.8489992942651163</v>
+        <v>0.6102287610935904</v>
       </c>
       <c r="K93" t="n">
-        <v>0.848657846477992</v>
+        <v>0.6228083923798121</v>
       </c>
       <c r="L93" t="n">
-        <v>0.8171308001309198</v>
+        <v>0.5804083709206943</v>
       </c>
       <c r="M93" t="n">
-        <v>0.82362899107562</v>
+        <v>0.5748813830469781</v>
       </c>
       <c r="N93" t="n">
-        <v>0.9689044662955344</v>
+        <v>0.794603199902308</v>
       </c>
       <c r="O93" t="n">
-        <v>1.01781848712162</v>
+        <v>0.6565276905888424</v>
       </c>
       <c r="P93" t="n">
-        <v>0.9440687548829554</v>
+        <v>0.628620127081341</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.578501452889866</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.7960096835802036</v>
+        <v>0.8849007692403856</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6240,60 +5959,57 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
-        <v>40</v>
-      </c>
-      <c r="H94" t="n">
         <v>240</v>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I94" t="n">
-        <v>1.101441879504978</v>
+        <v>0.5841639605424631</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5822598577711097</v>
+        <v>0.588124751861914</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6888023703574426</v>
+        <v>0.6170840417383642</v>
       </c>
       <c r="L94" t="n">
-        <v>0.6021401254181553</v>
+        <v>0.5833415142152758</v>
       </c>
       <c r="M94" t="n">
-        <v>0.3287954444456844</v>
+        <v>0.5834619890120071</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9164711743951739</v>
+        <v>0.8315249668126623</v>
       </c>
       <c r="O94" t="n">
-        <v>0.6580177668043052</v>
+        <v>0.5965081188058827</v>
       </c>
       <c r="P94" t="n">
-        <v>0.5824806027863788</v>
+        <v>0.6170443665227529</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.421739452280574</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.3599483730149227</v>
+        <v>0.8645601730881353</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6302,60 +6018,57 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>40</v>
-      </c>
-      <c r="H95" t="n">
         <v>240</v>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I95" t="n">
-        <v>-0.9813361312057205</v>
+        <v>0.5711930881094202</v>
       </c>
       <c r="J95" t="n">
-        <v>0.8161463617837259</v>
+        <v>0.5591670178005212</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5706924702831104</v>
+        <v>0.5699624936857837</v>
       </c>
       <c r="L95" t="n">
-        <v>0.6375439872620945</v>
+        <v>0.5641936583134233</v>
       </c>
       <c r="M95" t="n">
-        <v>0.6570627362181864</v>
+        <v>0.575713857215889</v>
       </c>
       <c r="N95" t="n">
-        <v>0.6726240383055071</v>
+        <v>0.7054159033560198</v>
       </c>
       <c r="O95" t="n">
-        <v>1.092473554170238</v>
+        <v>0.5955514542948644</v>
       </c>
       <c r="P95" t="n">
-        <v>1.278523312923054</v>
+        <v>0.5693437049087315</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.4703804061743366</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.6301402497625285</v>
+        <v>0.81835546420202</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6364,60 +6077,57 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
-        <v>40</v>
-      </c>
-      <c r="H96" t="n">
         <v>240</v>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I96" t="n">
-        <v>0.1781460091758817</v>
+        <v>0.5919845197735724</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1643094706974148</v>
+        <v>0.5762330148670539</v>
       </c>
       <c r="K96" t="n">
-        <v>0.3518703422351021</v>
+        <v>0.5687477414295018</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2706686059994227</v>
+        <v>0.5678534788062323</v>
       </c>
       <c r="M96" t="n">
-        <v>0.7101000279531766</v>
+        <v>0.5709199968633056</v>
       </c>
       <c r="N96" t="n">
-        <v>0.7953788874067116</v>
+        <v>0.7575522587219461</v>
       </c>
       <c r="O96" t="n">
-        <v>0.2427189519868185</v>
+        <v>0.7713553434732462</v>
       </c>
       <c r="P96" t="n">
-        <v>0.2433696003649687</v>
+        <v>0.5856320940919385</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.303642788573367</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.6021412703882749</v>
+        <v>0.8510559604860225</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6426,551 +6136,52 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>40</v>
-      </c>
-      <c r="H97" t="n">
         <v>240</v>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I97" t="n">
-        <v>0.1612873975960485</v>
+        <v>0.5929416791171873</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1650261350887357</v>
+        <v>0.5724888012161821</v>
       </c>
       <c r="K97" t="n">
-        <v>0.4161095711469228</v>
+        <v>0.6367283294188676</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2676233315163445</v>
+        <v>0.6217568116839799</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2922850231448818</v>
+        <v>0.6069048094276611</v>
       </c>
       <c r="N97" t="n">
-        <v>0.7927581804376649</v>
+        <v>0.6068477042605924</v>
       </c>
       <c r="O97" t="n">
-        <v>0.5973858763912856</v>
+        <v>0.6731290813657625</v>
       </c>
       <c r="P97" t="n">
-        <v>0.5105819412754159</v>
+        <v>0.5896088720919231</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.3381047205796655</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.245400299880856</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>6</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>200</v>
-      </c>
-      <c r="G98" t="n">
-        <v>40</v>
-      </c>
-      <c r="H98" t="n">
-        <v>240</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.2385359710795657</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.1667219250929168</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.4577113582245625</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.2663245194310542</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.2535000232151065</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.8024315807525595</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.2443701645169075</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.2581986793228327</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.515001815811894</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.2296539153624055</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>7</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>200</v>
-      </c>
-      <c r="G99" t="n">
-        <v>40</v>
-      </c>
-      <c r="H99" t="n">
-        <v>240</v>
-      </c>
-      <c r="I99" t="n">
-        <v>-1.232403125251424</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.053266799937751</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.6306831335185454</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.8523570967852586</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.7142448023315783</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.681302619265356</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.9975922226618094</v>
-      </c>
-      <c r="P99" t="n">
-        <v>1.155890627036565</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.6470451833004712</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.7016143819925262</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>8</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>200</v>
-      </c>
-      <c r="G100" t="n">
-        <v>40</v>
-      </c>
-      <c r="H100" t="n">
-        <v>240</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.6984194179034882</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.3240610131500268</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.9159701944844496</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.4213251578683669</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9877656275533402</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.8616685740129588</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.4185299454792086</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0.3447286526260005</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.5635944672153963</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.7619414590061002</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>9</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>200</v>
-      </c>
-      <c r="G101" t="n">
-        <v>40</v>
-      </c>
-      <c r="H101" t="n">
-        <v>240</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.1909901609650745</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.1627428826512318</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.3007737346658703</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.2740636462963811</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.421115220645366</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.7950182752255943</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.5167411083451844</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0.4694562844338684</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.2982429955742761</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.2421555587520169</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>10</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>200</v>
-      </c>
-      <c r="G102" t="n">
-        <v>40</v>
-      </c>
-      <c r="H102" t="n">
-        <v>240</v>
-      </c>
-      <c r="I102" t="n">
-        <v>-0.3361177553925033</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.3003011289815618</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.6061561624838836</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.3054362747461343</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.3727468515710384</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.7276428218945763</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.5700124629188814</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.6846552116988415</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>1.065028122022534</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.350234932611356</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>11</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>200</v>
-      </c>
-      <c r="G103" t="n">
-        <v>40</v>
-      </c>
-      <c r="H103" t="n">
-        <v>240</v>
-      </c>
-      <c r="I103" t="n">
-        <v>-1.716152495905828</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.532372439070045</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.9989641869220123</v>
-      </c>
-      <c r="L103" t="n">
-        <v>1.24038772505566</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.8353906596558538</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.84275554401202</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1.308916198345693</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1.428687515651772</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.9560564335935158</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.9816791062743624</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>12</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>200</v>
-      </c>
-      <c r="G104" t="n">
-        <v>40</v>
-      </c>
-      <c r="H104" t="n">
-        <v>240</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-0.9036836208830665</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.7369107574855782</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.6528537729316601</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.5980717066182011</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.2084796579954836</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.6691414784509397</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.3837629495276889</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0.429987983682722</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.4631854562098712</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.2336110047417426</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>AR(2)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>200</v>
-      </c>
-      <c r="G105" t="n">
-        <v>40</v>
-      </c>
-      <c r="H105" t="n">
-        <v>240</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.5710931721646011</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.6199370953109629</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.5460894147606661</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.5504262554837763</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.793841470037883</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.67069497402247</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0.6942190972237813</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.6350436078521473</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.5112108529472746</v>
+        <v>0.9471579960888478</v>
       </c>
     </row>
   </sheetData>
